--- a/biology/Botanique/Posidoniaceae/Posidoniaceae.xlsx
+++ b/biology/Botanique/Posidoniaceae/Posidoniaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Posidoniaceae sont une famille de plantes angiospermes. Elle comprend moins d'une dizaine d'espèces appartenant toutes au genre Posidonia.
-Ce sont des plantes marines entièrement submergées, pérennes, à rhizome monopodial rampant[1] des zones tempérées chaudes et subtropicales (pourtour méditerranéen - 1 espèce, Posidonia oceanica et côte ouest de l'Australie - 8 espèces).
+Ce sont des plantes marines entièrement submergées, pérennes, à rhizome monopodial rampant des zones tempérées chaudes et subtropicales (pourtour méditerranéen - 1 espèce, Posidonia oceanica et côte ouest de l'Australie - 8 espèces).
 Posidonia est un végétal marin, mais ce n'est pas une algue. Il s'agit en fait d'une plante à fleurs descendant d'un ancêtre terrestre qui devait ressembler aux joncs.
 En Méditerranée, Posidonia oceanica, forme ce qu'on appelle les « herbiers de posidonies ».
-Selon certains auteurs ces herbiers seraient menacés par une algue verte Caulerpa taxifolia (Caulerpaceae), qualifiée d'« algue tueuse »[2], qui prolifère en Méditerranée après son introduction accidentelle par l'aquarium de Monaco.
+Selon certains auteurs ces herbiers seraient menacés par une algue verte Caulerpa taxifolia (Caulerpaceae), qualifiée d'« algue tueuse », qui prolifère en Méditerranée après son introduction accidentelle par l'aquarium de Monaco.
 </t>
         </is>
       </c>
@@ -515,7 +527,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre Posidonia dérive de « Poséidon » (dieu des Mers et des Océans dans la mythologie grecque).
 </t>
@@ -546,9 +560,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (15 avr. 2010)[3], NCBI  (15 avr. 2010)[4], Angiosperm Phylogeny Website                        (20 mai 2010)[5] et DELTA Angio           (15 avr. 2010)[6], ITIS      (15 avr. 2010)[7] et World Register of Marine Species                               (24 avr. 2010)[8] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (15 avr. 2010), NCBI  (15 avr. 2010), Angiosperm Phylogeny Website                        (20 mai 2010) et DELTA Angio           (15 avr. 2010), ITIS      (15 avr. 2010) et World Register of Marine Species                               (24 avr. 2010) :
 genre Posidonia  K.D.Koenig (1805)</t>
         </is>
       </c>
@@ -577,7 +593,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Posidonia oceanica
